--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3084.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3084.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118646808524466</v>
+        <v>1.272107839584351</v>
       </c>
       <c r="B1">
-        <v>2.365559108069237</v>
+        <v>2.275051593780518</v>
       </c>
       <c r="C1">
-        <v>4.049618819876109</v>
+        <v>4.645138740539551</v>
       </c>
       <c r="D1">
-        <v>3.923425493504434</v>
+        <v>3.045556783676147</v>
       </c>
       <c r="E1">
-        <v>1.280453959564502</v>
+        <v>1.352442741394043</v>
       </c>
     </row>
   </sheetData>
